--- a/data/IEEE9/ieee9/ieee9_2023.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78DF412-1C85-411B-9EF7-0F454BD4466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2E1F42-2B87-43FC-AD84-C1879430FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11670" yWindow="6240" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
